--- a/biology/Origine et évolution du vivant/Gustaf_Olof_Svante_Arrhenius/Gustaf_Olof_Svante_Arrhenius.xlsx
+++ b/biology/Origine et évolution du vivant/Gustaf_Olof_Svante_Arrhenius/Gustaf_Olof_Svante_Arrhenius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustaf Olof Svante Arrhenius, parfois dénommé Olaf Arrhenius, (1922-2019) est un océanographe et géochimiste suédois. Il est le petit-fils du savant (prix Nobel de chimie) Svante August Arrhenius, chimiste suédois célèbre pour avoir développé la « théorie de la dissociation électrolytique », et le fils de Olof Vilhelm Arrhenius (1896-1977), chimiste.
-Océanographe puis géochimiste puis biogéochimiste, Olaf Arrhenius a poursuivi la tradition scientifique familiale. Il a fait partie des chercheurs en exobiologie, et il est aussi parfois considéré comme l’un des précurseurs de l’écologie moderne et en particulier de l’écologie du paysage pour avoir été le premier à tenter de formuler mathématiquement[1] la théorie de l’existence d’une relation « Nombre d’espèces - surface » (SPAR pour les anglophones ; pour « Species-area relationship ») qui postule que plus une surface est grande, plus le nombre d'espèces y augmenterait, de manière exponentielle. Cette théorie, bien que non complètement démontrée[2], est devenue l’un des fondamentaux de l’écologie.
+Océanographe puis géochimiste puis biogéochimiste, Olaf Arrhenius a poursuivi la tradition scientifique familiale. Il a fait partie des chercheurs en exobiologie, et il est aussi parfois considéré comme l’un des précurseurs de l’écologie moderne et en particulier de l’écologie du paysage pour avoir été le premier à tenter de formuler mathématiquement la théorie de l’existence d’une relation « Nombre d’espèces - surface » (SPAR pour les anglophones ; pour « Species-area relationship ») qui postule que plus une surface est grande, plus le nombre d'espèces y augmenterait, de manière exponentielle. Cette théorie, bien que non complètement démontrée, est devenue l’un des fondamentaux de l’écologie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Suède, il a participé à une première étude océanographique de quelques grands fonds est-atlantiques et méditerranéen sur le bateau d'exploration M/S Skagerak en 1946, juste après la Seconde Guerre mondiale, alors que les séquelles de guerre étaient encore manifestes notamment sur les ports méditerranéens. Cette mission était un prélude et un essai de nouveaux moyens d'échantillonnage, d'études sismiques et optiques, préparant la grande expédition suédoise océanographique Albatross qui a fait un tour du monde en 1947-1948. Cette expédition Albatross était dirigée par Hans Pettersson (1888-1966), professeur d'océanographie et directeur de l'Institut océanographique de Göteborg a mis en œuvre pour la première fois un échantillonneur mis au point par Börje Kullenberg, capable de prélever des carottes de sédiments en eaux profondes pour étudier le passé biogéochimique de la planète, alors que les matériels précédents ne permettaient pas d'échantillonner à plus de 20 m. Arrhenius a pu y participer en tant que géochimiste, et ce sont les données fournies par cette expédition qui ont permis à Arrhenius de faire son doctorat de sciences naturelles, qu'il a obtenu en 1953 à l'université de Stockholm. Elles ont aussi permis de préciser l'histoire du climat planétaire lors du dernier million d'années, dont toutes les glaciations du Quaternaire (qui sera ensuite affinée avec l'analyse des bulles d'air des glaces polaires). Depuis l'étude de sédiments permet de remonter couramment à 300 millions d'années et localement jusqu'à plus de 3,5 milliards d'années, mais pour l'époque, 1 million d'années représentait un bond important pour la connaissance du paléoenvironnement.
 En 1948, au retour de l'expédition, il épouse Eugenie Jenny de Hevesy (1926-2009). Ils auront trois enfants : Susanne, Thomas, et Peter.
@@ -553,8 +567,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Contribution à la modélisation mathématique de la diversité biologique
-Le naturaliste explorateur Alexander von Humboldt (1769-1859) avait  en 1807 déjà noté[3] dans ses explorations que, à conditions biogéographique et bioproductives comparables, les grandes superficies accueillaient un nombre bien plus grand d’espèces végétales que les petites.
+          <t>Contribution à la modélisation mathématique de la diversité biologique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le naturaliste explorateur Alexander von Humboldt (1769-1859) avait  en 1807 déjà noté dans ses explorations que, à conditions biogéographique et bioproductives comparables, les grandes superficies accueillaient un nombre bien plus grand d’espèces végétales que les petites.
 Divers naturalistes, dont deux botanistes (Hewett Cottrell Watson (1804-1881) et Alphonse Pyrame de Candolle (1806-1893)) ont au début du XIXe siècle confirmé cette relation par de nombreuses observations, mais sans proposer de formalisation mathématique descriptive ; Watson écrivant simplement en 1847 à propos de la diversité des espèces en Grande-Bretagne : « en moyenne un seul comté abrite presque la moitié du nombre total d’espèces de Grande Bretagne ; et il n’est sans doute pas erroné de supposer qu’un seul mile (carré) abrite la moitié des espèces d’un comté ».
 Alors que le mot « biodiversité » n’avait pas encore été créé, Olaf Arrhenius a en 1921[Information douteuse] présenté une formule mathématique simple destinée à décrire, prédire ou calculer la richesse écologique (ou la pauvreté)  d’un territoire en fonction de l’aire disponible pour la faune et la flore sur ce territoire, sous la forme de l’équation :  S = CA puissance Z (S représentant le nombre d’espèces, A la surface, et C et Z des  constantes à réajuster selon le contexte).
 Cette équation peut se vérifier tant avec des plantes et animaux actuels, que fossiles (étude de la diversité des espèces fossiles d’un gisements). Elle s'applique théoriquement tant à l’échelle d’une île, que d’un continent ou d’une portion de continent.
@@ -564,14 +583,14 @@
 Elle est pour partie à l’origine de la méthode d'échantillonnage par redondance qui permet aussi de vérifier la valeur et la justesse des échantillons.
 Lyman et Ames ont en 2004 estimé son intérêt pour l’étude de restes animaux archéologiques.
 Mais il reste une difficulté, qui a occupé plusieurs écologues à la fin du XXe siècle, c’est  le calcul de la constante z.
-Frank Preston[4] et Robert may ont cherché à étayer cette équation et en particulier sa forme exponentielle, mais aboutissant à une valeur de 0,26 pour z, qui ne s’accorde pas aux observations expérimentales. 
-Deux écologues américains, Edward Connors et Earl McCoy[5] ont imaginé que z pourrait être une variable aléatoire sans signification particulière. Se basant sur la théorie des probabilité Wade Leitner (université de l'Arizona) a conclu que la forme exponentielle de l’équation ne valait que pour certaines régions.
+Frank Preston et Robert may ont cherché à étayer cette équation et en particulier sa forme exponentielle, mais aboutissant à une valeur de 0,26 pour z, qui ne s’accorde pas aux observations expérimentales. 
+Deux écologues américains, Edward Connors et Earl McCoy ont imaginé que z pourrait être une variable aléatoire sans signification particulière. Se basant sur la théorie des probabilité Wade Leitner (université de l'Arizona) a conclu que la forme exponentielle de l’équation ne valait que pour certaines régions.
 L’équation SPAR est intuitivement acceptée dans le monde de l’écologie, mais n’a pas encore été scientifiquement complètement démontrée ou affinée.
 Il semble qu’il existe en fait quatre groupes différents de valeur de z, correspondant à quatre types de contextes différents du point de vue de l'écologie du paysage :
 z serait une valeur faible (0,12 environ) à l’échelle de « provinces biologiques », cette valeur est comprise entre 0,1 et 0,2.
-Elle est comprise entre 0,25 et 0,55 si c’est un archipel qui est étudié[6] (Des îles proches sans être physiquement connectées permettent des échanges minimaux pour un certain nombre d’espèces au moins, dont les oiseaux en particulier, lesquels peuvent transporter des organismes ou propagules d’autres espèces) ;
+Elle est comprise entre 0,25 et 0,55 si c’est un archipel qui est étudié (Des îles proches sans être physiquement connectées permettent des échanges minimaux pour un certain nombre d’espèces au moins, dont les oiseaux en particulier, lesquels peuvent transporter des organismes ou propagules d’autres espèces) ;
 la valeur de z est comprise entre 0,6 et 1,5 dans les cas correspondant à des échelles plus larges (celle des régions biogéographiques), z semblant alors varier selon le continent considéré ou l’époque historique ;
-dans les archipels écologiques, cette valeur est comprise entre 0,1 et 0,2[7]. Dans ce dernier cas, il y a beaucoup plus de chances que la disparition locale d’individus soit compensée par une migration (ex. : migration animale) à partir d’une source voisine (ou éloignée s’il s’agit d’animaux volants ou d’organismes aquatiques mobiles dans le cas des fleuves ou mers).</t>
+dans les archipels écologiques, cette valeur est comprise entre 0,1 et 0,2. Dans ce dernier cas, il y a beaucoup plus de chances que la disparition locale d’individus soit compensée par une migration (ex. : migration animale) à partir d’une source voisine (ou éloignée s’il s’agit d’animaux volants ou d’organismes aquatiques mobiles dans le cas des fleuves ou mers).</t>
         </is>
       </c>
     </row>
@@ -599,7 +618,9 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette théorie s’applique plus à la diversité des espèces qu'à celle des gènes.
 L’écologie du paysage a apporté d’autres théories complémentaires montrant notamment :
